--- a/data/trans_orig/Q24A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q24A01-Habitat-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>9.777817702377694</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>8.972654475015664</v>
+        <v>8.972654475015663</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>14.22547562249515</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.21192812435182</v>
+        <v>15.18464906226792</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.45040383536817</v>
+        <v>16.39647176513105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.06282139988305</v>
+        <v>14.05119082758223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.67695550151703</v>
+        <v>13.64895773787643</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>9.366864776039067</v>
+        <v>9.411604572541988</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>10.47700427626196</v>
+        <v>10.5783162462442</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.720591073422723</v>
+        <v>8.688707597292172</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.249064797130044</v>
+        <v>8.156604900852226</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.51089175026239</v>
+        <v>13.52030305998535</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14.51325914061164</v>
+        <v>14.61764966237514</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12.08812719483744</v>
+        <v>12.18054559097825</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>11.637939809304</v>
+        <v>11.64078678735638</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.0455825327109</v>
+        <v>17.07779124887541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.19840250747787</v>
+        <v>19.11405704517417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.43688110331568</v>
+        <v>16.40014699716632</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.36940211171756</v>
+        <v>16.33179767338751</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.36259658258834</v>
+        <v>11.47328573992768</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.81908440017661</v>
+        <v>13.04575557278796</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.93271481162818</v>
+        <v>11.14557582059828</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.851486545469339</v>
+        <v>9.780274340337318</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.0514842078806</v>
+        <v>15.05620759046119</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16.64473811762921</v>
+        <v>16.59933662455629</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13.94395626992219</v>
+        <v>13.8634545754907</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>13.51720199520023</v>
+        <v>13.40469393363115</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.75542195568817</v>
+        <v>16.77881495458624</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>14.92021490546283</v>
+        <v>14.97500692895996</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12.54817724737207</v>
+        <v>12.45930411017965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.90924750955596</v>
+        <v>12.7483979423823</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>10.93112658726515</v>
+        <v>10.93993578886256</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>11.03386842182185</v>
+        <v>11.12524263941619</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.05817472712514</v>
+        <v>9.907759027561214</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.784016335050572</v>
+        <v>8.84360503989183</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>14.83598086307368</v>
+        <v>14.79946009303729</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13.56492815407313</v>
+        <v>13.60118606110113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11.60711978434023</v>
+        <v>11.6431469085328</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>11.36071223707326</v>
+        <v>11.30661502939622</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.8977605510646</v>
+        <v>18.86075029914377</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.99889963858709</v>
+        <v>17.00042600487819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.54265639669135</v>
+        <v>14.53598929828844</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.21378333646588</v>
+        <v>15.21757106311326</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>13.2560177676189</v>
+        <v>13.34300789093153</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>12.79628751221381</v>
+        <v>12.84662792151994</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>11.76462945378561</v>
+        <v>11.67192171999974</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>10.62548254187874</v>
+        <v>10.73916104323299</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>16.53553597535035</v>
+        <v>16.51565491959089</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14.99976736628302</v>
+        <v>15.06376473197148</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.9931731323166</v>
+        <v>13.04329089607253</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>12.9683386891088</v>
+        <v>13.03269912252725</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>11.41259376612048</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>9.46021242406996</v>
+        <v>9.460212424069958</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>15.32953588618082</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.64572813633223</v>
+        <v>15.62668856235584</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.48359064769837</v>
+        <v>14.61679827053579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13.89577976816889</v>
+        <v>13.95951124003871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.9475948663685</v>
+        <v>10.87878082876897</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>12.14863912995509</v>
+        <v>12.1551103144639</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.40339602976591</v>
+        <v>12.31463158422544</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.59261963461358</v>
+        <v>10.60185056091699</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.706358480690211</v>
+        <v>8.682072848714535</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>14.55884831412861</v>
+        <v>14.62114603977298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13.91307454019502</v>
+        <v>13.96204473013935</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12.66959569762787</v>
+        <v>12.67388059324603</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>10.12995729809948</v>
+        <v>10.21221376535886</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.89899944144512</v>
+        <v>17.86258746681848</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.09741807742705</v>
+        <v>17.02186459973913</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.76828610338391</v>
+        <v>15.87666438084325</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.12310533920364</v>
+        <v>14.27177758934808</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.35163966490372</v>
+        <v>14.32501794596592</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.44039682875824</v>
+        <v>14.579881921066</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.44060166291893</v>
+        <v>12.2718175352247</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.29181324803854</v>
+        <v>10.24220562516136</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.12010832940861</v>
+        <v>16.24284917838175</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15.6553177319235</v>
+        <v>15.63232444030101</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14.06117289912938</v>
+        <v>14.12632822811194</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>12.0965104747424</v>
+        <v>12.03345619047403</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>15.53037740714752</v>
+        <v>15.59581552346204</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>14.39289761361297</v>
+        <v>14.39426727445097</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11.99335147335526</v>
+        <v>12.1249317983762</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12.59744456831879</v>
+        <v>12.55065742607156</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>12.94201400445881</v>
+        <v>13.04219293560257</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.20610195537868</v>
+        <v>12.16008236106907</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>10.66301054029066</v>
+        <v>10.52595867733753</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>9.284695405883637</v>
+        <v>9.374389524528011</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>14.76662907402902</v>
+        <v>14.77527610702053</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13.65124562924456</v>
+        <v>13.65498193281682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11.59930193659675</v>
+        <v>11.65965259544716</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>11.29615237174602</v>
+        <v>11.3554813540681</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.40240861714758</v>
+        <v>17.37665829398752</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.14629176519864</v>
+        <v>16.21697140557311</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.05376734948371</v>
+        <v>14.09189420612306</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.99593368102573</v>
+        <v>14.92386021574062</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>14.89087561111175</v>
+        <v>14.92270958207076</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.28461717381144</v>
+        <v>14.2652860720218</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>12.51601220150356</v>
+        <v>12.38836095008487</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10.78173254311709</v>
+        <v>10.84091938684433</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>16.08965516230867</v>
+        <v>16.1393775966552</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15.06932006449693</v>
+        <v>14.95779781812548</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13.06215520610892</v>
+        <v>13.0487309187252</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>12.75226599887401</v>
+        <v>12.87211763995028</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>14.1238418749168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13.76782725044669</v>
+        <v>13.7678272504467</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>12.62208673707686</v>
@@ -1225,7 +1225,7 @@
         <v>10.95960013251299</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>9.612178041381124</v>
+        <v>9.612178041381123</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15.2288833181049</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.30067797116634</v>
+        <v>16.28793861000338</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.49126582755936</v>
+        <v>15.58739043621823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.5998365569382</v>
+        <v>13.6115429732347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.07126246692694</v>
+        <v>13.09683912006672</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>12.0773983994034</v>
+        <v>12.04238162310341</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.11559708366078</v>
+        <v>12.1058386303579</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.49415246322947</v>
+        <v>10.47739906890589</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.251404113755742</v>
+        <v>9.18657487532727</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.81004280076169</v>
+        <v>14.87383800952891</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14.17309360589909</v>
+        <v>14.21679530827048</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12.34395425628405</v>
+        <v>12.36870716049744</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>11.45435741953095</v>
+        <v>11.47551561455782</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.34363302424286</v>
+        <v>17.31066829008946</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.64895088545568</v>
+        <v>16.64921956141588</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.65506179297745</v>
+        <v>14.66941314457481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.47993834620259</v>
+        <v>14.47863797286315</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.20103269987392</v>
+        <v>13.17399422255611</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.14100411095778</v>
+        <v>13.13311077501685</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.45567446107679</v>
+        <v>11.43265557861007</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.05648182226183</v>
+        <v>10.05151612858444</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.61884346172862</v>
+        <v>15.61871238522999</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15.02674974106329</v>
+        <v>15.01146446068808</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13.08360904164892</v>
+        <v>13.14198498912886</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>12.33727977299465</v>
+        <v>12.3255224703787</v>
       </c>
     </row>
     <row r="19">
